--- a/stripped/P01110.mes.bin.xlsx
+++ b/stripped/P01110.mes.bin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE97D4D2-862B-4A3A-985F-B03744F670B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12646590-10E5-46E0-9CBF-15CC46205719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16275" yWindow="6510" windowWidth="33855" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33810" yWindow="0" windowWidth="33900" windowHeight="21090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P01110.mes.bin" sheetId="1" r:id="rId1"/>

--- a/stripped/P01110.mes.bin.xlsx
+++ b/stripped/P01110.mes.bin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12646590-10E5-46E0-9CBF-15CC46205719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42002A88-DDCC-4953-807A-F37313D4EB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33810" yWindow="0" windowWidth="33900" windowHeight="21090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="5460" windowWidth="50850" windowHeight="21795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P01110.mes.bin" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>Status</t>
   </si>
@@ -62,7 +62,7 @@
     <t>11</t>
   </si>
   <si>
-    <t>^By Rina you mean Rina Ogata-chan?^</t>
+    <t>^By Rina-chan you mean Rina Ogata-chan?^</t>
   </si>
   <si>
     <t>13</t>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>17</t>
+  </si>
+  <si>
+    <t>The way their relationship is presented publicly paints Rina\nas Yuki's rival or a cold-hearted senpai chick,&lt;pause&gt;</t>
   </si>
   <si>
     <t>19</t>
@@ -568,7 +571,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -744,7 +749,9 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -753,7 +760,7 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -767,7 +774,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
@@ -775,7 +782,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -785,7 +792,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
@@ -801,7 +808,7 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
@@ -817,7 +824,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
@@ -825,7 +832,7 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -835,7 +842,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
@@ -851,7 +858,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -865,7 +872,7 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
@@ -873,7 +880,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -883,7 +890,7 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
@@ -899,7 +906,7 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
@@ -915,7 +922,7 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -929,7 +936,7 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
@@ -945,7 +952,7 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
@@ -961,7 +968,7 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
@@ -977,7 +984,7 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
@@ -993,7 +1000,7 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
@@ -1009,7 +1016,7 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
@@ -1025,7 +1032,7 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
@@ -1041,7 +1048,7 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
@@ -1057,7 +1064,7 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1071,7 +1078,7 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1085,7 +1092,7 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1099,7 +1106,7 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
@@ -1115,7 +1122,7 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
@@ -1131,7 +1138,7 @@
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
